--- a/assignments/assign2/LA558_Assign2.xlsx
+++ b/assignments/assign2/LA558_Assign2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shs90\OneDrive\바탕 화면\LA 558\LA558_Son\assignments\assign2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED941EF-0827-4575-914C-7D1D1904C26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181B5B00-0BDC-4EFE-82A9-0C99D7033E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="webdst2122pk12b" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2672" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2673" uniqueCount="915">
   <si>
     <t>07</t>
   </si>
@@ -2779,6 +2779,10 @@
   </si>
   <si>
     <t>TotalK12</t>
+  </si>
+  <si>
+    <t>BlackTotal</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -49662,10 +49666,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A50745-5037-8941-A5B0-9A91469D8438}">
-  <dimension ref="A1:F328"/>
+  <dimension ref="A1:G328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="C310" workbookViewId="0">
+      <selection activeCell="G328" sqref="G328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -49673,7 +49677,7 @@
     <col min="4" max="4" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>862</v>
       </c>
@@ -49692,8 +49696,11 @@
       <c r="F1" s="2" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>7</v>
       </c>
@@ -49712,8 +49719,11 @@
       <c r="F2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>11</v>
       </c>
@@ -49732,8 +49742,11 @@
       <c r="F3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>11</v>
       </c>
@@ -49752,8 +49765,11 @@
       <c r="F4" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>12</v>
       </c>
@@ -49772,8 +49788,11 @@
       <c r="F5" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -49792,8 +49811,11 @@
       <c r="F6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>15</v>
       </c>
@@ -49812,8 +49834,11 @@
       <c r="F7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>10</v>
       </c>
@@ -49832,8 +49857,11 @@
       <c r="F8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -49852,8 +49880,11 @@
       <c r="F9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>5</v>
       </c>
@@ -49872,8 +49903,11 @@
       <c r="F10" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -49892,8 +49926,11 @@
       <c r="F11" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>7</v>
       </c>
@@ -49912,8 +49949,11 @@
       <c r="F12" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>5</v>
       </c>
@@ -49932,8 +49972,11 @@
       <c r="F13" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -49952,8 +49995,11 @@
       <c r="F14" s="3">
         <v>377</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>10</v>
       </c>
@@ -49972,8 +50018,11 @@
       <c r="F15" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>9</v>
       </c>
@@ -49992,8 +50041,11 @@
       <c r="F16" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>11</v>
       </c>
@@ -50012,8 +50064,11 @@
       <c r="F17" s="3">
         <v>345</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>7</v>
       </c>
@@ -50032,8 +50087,11 @@
       <c r="F18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>5</v>
       </c>
@@ -50052,8 +50110,11 @@
       <c r="F19" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>12</v>
       </c>
@@ -50072,8 +50133,11 @@
       <c r="F20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>13</v>
       </c>
@@ -50092,8 +50156,11 @@
       <c r="F21" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>11</v>
       </c>
@@ -50112,8 +50179,11 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>13</v>
       </c>
@@ -50132,8 +50202,11 @@
       <c r="F23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>11</v>
       </c>
@@ -50152,8 +50225,11 @@
       <c r="F24" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>11</v>
       </c>
@@ -50172,8 +50248,11 @@
       <c r="F25" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>7</v>
       </c>
@@ -50192,8 +50271,11 @@
       <c r="F26" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>13</v>
       </c>
@@ -50212,8 +50294,11 @@
       <c r="F27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>10</v>
       </c>
@@ -50232,8 +50317,11 @@
       <c r="F28" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>9</v>
       </c>
@@ -50252,8 +50340,11 @@
       <c r="F29" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>7</v>
       </c>
@@ -50272,8 +50363,11 @@
       <c r="F30" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>9</v>
       </c>
@@ -50292,8 +50386,11 @@
       <c r="F31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>10</v>
       </c>
@@ -50312,8 +50409,11 @@
       <c r="F32" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>9</v>
       </c>
@@ -50332,8 +50432,11 @@
       <c r="F33" s="3">
         <v>101</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" s="3">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>15</v>
       </c>
@@ -50352,8 +50455,11 @@
       <c r="F34" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>11</v>
       </c>
@@ -50372,8 +50478,11 @@
       <c r="F35" s="3">
         <v>31</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>11</v>
       </c>
@@ -50392,8 +50501,11 @@
       <c r="F36" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>12</v>
       </c>
@@ -50412,8 +50524,11 @@
       <c r="F37" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>7</v>
       </c>
@@ -50432,8 +50547,11 @@
       <c r="F38" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>7</v>
       </c>
@@ -50452,8 +50570,11 @@
       <c r="F39" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>7</v>
       </c>
@@ -50472,8 +50593,11 @@
       <c r="F40" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>15</v>
       </c>
@@ -50492,8 +50616,11 @@
       <c r="F41" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" s="3">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>13</v>
       </c>
@@ -50512,8 +50639,11 @@
       <c r="F42" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>7</v>
       </c>
@@ -50532,8 +50662,11 @@
       <c r="F43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>9</v>
       </c>
@@ -50552,8 +50685,11 @@
       <c r="F44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>9</v>
       </c>
@@ -50572,8 +50708,11 @@
       <c r="F45" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>15</v>
       </c>
@@ -50592,8 +50731,11 @@
       <c r="F46" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>11</v>
       </c>
@@ -50612,8 +50754,11 @@
       <c r="F47" s="3">
         <v>88</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>11</v>
       </c>
@@ -50632,8 +50777,11 @@
       <c r="F48" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>7</v>
       </c>
@@ -50652,8 +50800,11 @@
       <c r="F49" s="3">
         <v>204</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" s="3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>10</v>
       </c>
@@ -50672,8 +50823,11 @@
       <c r="F50" s="3">
         <v>325</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" s="3">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>10</v>
       </c>
@@ -50692,8 +50846,11 @@
       <c r="F51" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>15</v>
       </c>
@@ -50712,8 +50869,11 @@
       <c r="F52" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>15</v>
       </c>
@@ -50732,8 +50892,11 @@
       <c r="F53" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>1</v>
       </c>
@@ -50752,8 +50915,11 @@
       <c r="F54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>9</v>
       </c>
@@ -50772,8 +50938,11 @@
       <c r="F55" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>10</v>
       </c>
@@ -50792,8 +50961,11 @@
       <c r="F56" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>13</v>
       </c>
@@ -50812,8 +50984,11 @@
       <c r="F57" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>12</v>
       </c>
@@ -50832,8 +51007,11 @@
       <c r="F58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>15</v>
       </c>
@@ -50852,8 +51030,11 @@
       <c r="F59" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>7</v>
       </c>
@@ -50872,8 +51053,11 @@
       <c r="F60" s="3">
         <v>38</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" s="3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>12</v>
       </c>
@@ -50892,8 +51076,11 @@
       <c r="F61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>12</v>
       </c>
@@ -50912,8 +51099,11 @@
       <c r="F62" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>13</v>
       </c>
@@ -50932,8 +51122,11 @@
       <c r="F63" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>5</v>
       </c>
@@ -50952,8 +51145,11 @@
       <c r="F64" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>13</v>
       </c>
@@ -50972,8 +51168,11 @@
       <c r="F65" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>7</v>
       </c>
@@ -50992,8 +51191,11 @@
       <c r="F66" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>5</v>
       </c>
@@ -51012,8 +51214,11 @@
       <c r="F67" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>10</v>
       </c>
@@ -51032,8 +51237,11 @@
       <c r="F68" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" s="3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>7</v>
       </c>
@@ -51052,8 +51260,11 @@
       <c r="F69" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>9</v>
       </c>
@@ -51072,8 +51283,11 @@
       <c r="F70" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70" s="3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>11</v>
       </c>
@@ -51092,8 +51306,11 @@
       <c r="F71" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>10</v>
       </c>
@@ -51112,8 +51329,11 @@
       <c r="F72" s="3">
         <v>65</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" s="3">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>11</v>
       </c>
@@ -51132,8 +51352,11 @@
       <c r="F73" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>11</v>
       </c>
@@ -51152,8 +51375,11 @@
       <c r="F74" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>9</v>
       </c>
@@ -51172,8 +51398,11 @@
       <c r="F75" s="3">
         <v>49</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>11</v>
       </c>
@@ -51192,8 +51421,11 @@
       <c r="F76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>13</v>
       </c>
@@ -51212,8 +51444,11 @@
       <c r="F77" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>13</v>
       </c>
@@ -51232,8 +51467,11 @@
       <c r="F78" s="3">
         <v>81</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78" s="3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>13</v>
       </c>
@@ -51252,8 +51490,11 @@
       <c r="F79" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>11</v>
       </c>
@@ -51272,8 +51513,11 @@
       <c r="F80" s="3">
         <v>57</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80" s="3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>15</v>
       </c>
@@ -51292,8 +51536,11 @@
       <c r="F81" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>9</v>
       </c>
@@ -51312,8 +51559,11 @@
       <c r="F82" s="3">
         <v>214</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82" s="3">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>15</v>
       </c>
@@ -51332,8 +51582,11 @@
       <c r="F83" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>1</v>
       </c>
@@ -51352,8 +51605,11 @@
       <c r="F84" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>9</v>
       </c>
@@ -51372,8 +51628,11 @@
       <c r="F85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>12</v>
       </c>
@@ -51392,8 +51651,11 @@
       <c r="F86" s="3">
         <v>78</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>7</v>
       </c>
@@ -51412,8 +51674,11 @@
       <c r="F87" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>11</v>
       </c>
@@ -51432,8 +51697,11 @@
       <c r="F88" s="3">
         <v>2542</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88" s="3">
+        <v>6512</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>13</v>
       </c>
@@ -51452,8 +51720,11 @@
       <c r="F89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>7</v>
       </c>
@@ -51472,8 +51743,11 @@
       <c r="F90" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>1</v>
       </c>
@@ -51492,8 +51766,11 @@
       <c r="F91" s="3">
         <v>97</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91" s="3">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>7</v>
       </c>
@@ -51512,8 +51789,11 @@
       <c r="F92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>13</v>
       </c>
@@ -51532,8 +51812,11 @@
       <c r="F93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>9</v>
       </c>
@@ -51552,8 +51835,11 @@
       <c r="F94" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>5</v>
       </c>
@@ -51572,8 +51858,11 @@
       <c r="F95" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>11</v>
       </c>
@@ -51592,8 +51881,11 @@
       <c r="F96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>7</v>
       </c>
@@ -51612,8 +51904,11 @@
       <c r="F97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>9</v>
       </c>
@@ -51632,8 +51927,11 @@
       <c r="F98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>7</v>
       </c>
@@ -51652,8 +51950,11 @@
       <c r="F99" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>13</v>
       </c>
@@ -51672,8 +51973,11 @@
       <c r="F100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>1</v>
       </c>
@@ -51692,8 +51996,11 @@
       <c r="F101" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G101" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>12</v>
       </c>
@@ -51712,8 +52019,11 @@
       <c r="F102" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>1</v>
       </c>
@@ -51732,8 +52042,11 @@
       <c r="F103" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G103" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>7</v>
       </c>
@@ -51752,8 +52065,11 @@
       <c r="F104" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G104" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>5</v>
       </c>
@@ -51772,8 +52088,11 @@
       <c r="F105" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G105" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>10</v>
       </c>
@@ -51792,8 +52111,11 @@
       <c r="F106" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G106" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>13</v>
       </c>
@@ -51812,8 +52134,11 @@
       <c r="F107" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G107" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>5</v>
       </c>
@@ -51832,8 +52157,11 @@
       <c r="F108" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G108" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>11</v>
       </c>
@@ -51852,8 +52180,11 @@
       <c r="F109" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G109" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>15</v>
       </c>
@@ -51872,8 +52203,11 @@
       <c r="F110" s="3">
         <v>55</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G110" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>7</v>
       </c>
@@ -51892,8 +52226,11 @@
       <c r="F111" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G111" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>5</v>
       </c>
@@ -51912,8 +52249,11 @@
       <c r="F112" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G112" s="3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>15</v>
       </c>
@@ -51932,8 +52272,11 @@
       <c r="F113" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G113" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>13</v>
       </c>
@@ -51952,8 +52295,11 @@
       <c r="F114" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G114" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>12</v>
       </c>
@@ -51972,8 +52318,11 @@
       <c r="F115" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G115" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>7</v>
       </c>
@@ -51992,8 +52341,11 @@
       <c r="F116" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G116" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>12</v>
       </c>
@@ -52012,8 +52364,11 @@
       <c r="F117" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G117" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>11</v>
       </c>
@@ -52032,8 +52387,11 @@
       <c r="F118" s="3">
         <v>79</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G118" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>5</v>
       </c>
@@ -52052,8 +52410,11 @@
       <c r="F119" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G119" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>7</v>
       </c>
@@ -52072,8 +52433,11 @@
       <c r="F120" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G120" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>13</v>
       </c>
@@ -52092,8 +52456,11 @@
       <c r="F121" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G121" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>11</v>
       </c>
@@ -52112,8 +52479,11 @@
       <c r="F122" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G122" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>5</v>
       </c>
@@ -52132,8 +52502,11 @@
       <c r="F123" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G123" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>13</v>
       </c>
@@ -52152,8 +52525,11 @@
       <c r="F124" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G124" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>7</v>
       </c>
@@ -52172,8 +52548,11 @@
       <c r="F125" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G125" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>7</v>
       </c>
@@ -52192,8 +52571,11 @@
       <c r="F126" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G126" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>13</v>
       </c>
@@ -52212,8 +52594,11 @@
       <c r="F127" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G127" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>7</v>
       </c>
@@ -52232,8 +52617,11 @@
       <c r="F128" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G128" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>11</v>
       </c>
@@ -52252,8 +52640,11 @@
       <c r="F129" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G129" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>1</v>
       </c>
@@ -52272,8 +52663,11 @@
       <c r="F130" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G130" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>10</v>
       </c>
@@ -52292,8 +52686,11 @@
       <c r="F131" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G131" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>13</v>
       </c>
@@ -52312,8 +52709,11 @@
       <c r="F132" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G132" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>7</v>
       </c>
@@ -52332,8 +52732,11 @@
       <c r="F133" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G133" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>13</v>
       </c>
@@ -52352,8 +52755,11 @@
       <c r="F134" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G134" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>5</v>
       </c>
@@ -52372,8 +52778,11 @@
       <c r="F135" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G135" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>12</v>
       </c>
@@ -52392,8 +52801,11 @@
       <c r="F136" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G136" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>10</v>
       </c>
@@ -52412,8 +52824,11 @@
       <c r="F137" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G137" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>12</v>
       </c>
@@ -52432,8 +52847,11 @@
       <c r="F138" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G138" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>1</v>
       </c>
@@ -52452,8 +52870,11 @@
       <c r="F139" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G139" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>7</v>
       </c>
@@ -52472,8 +52893,11 @@
       <c r="F140" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G140" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>7</v>
       </c>
@@ -52492,8 +52916,11 @@
       <c r="F141" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G141" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>5</v>
       </c>
@@ -52512,8 +52939,11 @@
       <c r="F142" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G142" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>7</v>
       </c>
@@ -52532,8 +52962,11 @@
       <c r="F143" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G143" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>11</v>
       </c>
@@ -52552,8 +52985,11 @@
       <c r="F144" s="3">
         <v>26</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G144" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>11</v>
       </c>
@@ -52572,8 +53008,11 @@
       <c r="F145" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G145" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>10</v>
       </c>
@@ -52592,8 +53031,11 @@
       <c r="F146" s="3">
         <v>786</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G146" s="3">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>7</v>
       </c>
@@ -52612,8 +53054,11 @@
       <c r="F147" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G147" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>10</v>
       </c>
@@ -52632,8 +53077,11 @@
       <c r="F148" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G148" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>13</v>
       </c>
@@ -52652,8 +53100,11 @@
       <c r="F149" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G149" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>7</v>
       </c>
@@ -52672,8 +53123,11 @@
       <c r="F150" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G150" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>5</v>
       </c>
@@ -52692,8 +53146,11 @@
       <c r="F151" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G151" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>7</v>
       </c>
@@ -52712,8 +53169,11 @@
       <c r="F152" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G152" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>11</v>
       </c>
@@ -52732,8 +53192,11 @@
       <c r="F153" s="3">
         <v>630</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G153" s="3">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>15</v>
       </c>
@@ -52752,8 +53215,11 @@
       <c r="F154" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G154" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>15</v>
       </c>
@@ -52772,8 +53238,11 @@
       <c r="F155" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G155" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>12</v>
       </c>
@@ -52792,8 +53261,11 @@
       <c r="F156" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G156" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>11</v>
       </c>
@@ -52812,8 +53284,11 @@
       <c r="F157" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G157" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>7</v>
       </c>
@@ -52832,8 +53307,11 @@
       <c r="F158" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G158" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>13</v>
       </c>
@@ -52852,8 +53330,11 @@
       <c r="F159" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G159" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>5</v>
       </c>
@@ -52872,8 +53353,11 @@
       <c r="F160" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G160" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>12</v>
       </c>
@@ -52892,8 +53376,11 @@
       <c r="F161" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G161" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>12</v>
       </c>
@@ -52912,8 +53399,11 @@
       <c r="F162" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G162" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>13</v>
       </c>
@@ -52932,8 +53422,11 @@
       <c r="F163" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G163" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>13</v>
       </c>
@@ -52952,8 +53445,11 @@
       <c r="F164" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G164" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>10</v>
       </c>
@@ -52972,8 +53468,11 @@
       <c r="F165" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G165" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>10</v>
       </c>
@@ -52992,8 +53491,11 @@
       <c r="F166" s="3">
         <v>560</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G166" s="3">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>10</v>
       </c>
@@ -53012,8 +53514,11 @@
       <c r="F167" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G167" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>13</v>
       </c>
@@ -53032,8 +53537,11 @@
       <c r="F168" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G168" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>10</v>
       </c>
@@ -53052,8 +53560,11 @@
       <c r="F169" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G169" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>9</v>
       </c>
@@ -53072,8 +53583,11 @@
       <c r="F170" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G170" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>5</v>
       </c>
@@ -53092,8 +53606,11 @@
       <c r="F171" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G171" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>11</v>
       </c>
@@ -53112,8 +53629,11 @@
       <c r="F172" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G172" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>11</v>
       </c>
@@ -53132,8 +53652,11 @@
       <c r="F173" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G173" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>13</v>
       </c>
@@ -53152,8 +53675,11 @@
       <c r="F174" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G174" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>5</v>
       </c>
@@ -53172,8 +53698,11 @@
       <c r="F175" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G175" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>12</v>
       </c>
@@ -53192,8 +53721,11 @@
       <c r="F176" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G176" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>9</v>
       </c>
@@ -53212,8 +53744,11 @@
       <c r="F177" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G177" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>1</v>
       </c>
@@ -53232,8 +53767,11 @@
       <c r="F178" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G178" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
         <v>12</v>
       </c>
@@ -53252,8 +53790,11 @@
       <c r="F179" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G179" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>10</v>
       </c>
@@ -53272,8 +53813,11 @@
       <c r="F180" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G180" s="3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>7</v>
       </c>
@@ -53292,8 +53836,11 @@
       <c r="F181" s="3">
         <v>395</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G181" s="3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>11</v>
       </c>
@@ -53312,8 +53859,11 @@
       <c r="F182" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G182" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
         <v>7</v>
       </c>
@@ -53332,8 +53882,11 @@
       <c r="F183" s="3">
         <v>48</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G183" s="3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>12</v>
       </c>
@@ -53352,8 +53905,11 @@
       <c r="F184" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G184" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
         <v>15</v>
       </c>
@@ -53372,8 +53928,11 @@
       <c r="F185" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G185" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>11</v>
       </c>
@@ -53392,8 +53951,11 @@
       <c r="F186" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G186" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
         <v>10</v>
       </c>
@@ -53412,8 +53974,11 @@
       <c r="F187" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G187" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>10</v>
       </c>
@@ -53432,8 +53997,11 @@
       <c r="F188" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G188" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
         <v>13</v>
       </c>
@@ -53452,8 +54020,11 @@
       <c r="F189" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G189" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>1</v>
       </c>
@@ -53472,8 +54043,11 @@
       <c r="F190" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G190" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
         <v>7</v>
       </c>
@@ -53492,8 +54066,11 @@
       <c r="F191" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G191" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>10</v>
       </c>
@@ -53512,8 +54089,11 @@
       <c r="F192" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G192" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>15</v>
       </c>
@@ -53532,8 +54112,11 @@
       <c r="F193" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G193" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>13</v>
       </c>
@@ -53552,8 +54135,11 @@
       <c r="F194" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G194" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
         <v>15</v>
       </c>
@@ -53572,8 +54158,11 @@
       <c r="F195" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G195" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <v>15</v>
       </c>
@@ -53592,8 +54181,11 @@
       <c r="F196" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G196" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
         <v>13</v>
       </c>
@@ -53612,8 +54204,11 @@
       <c r="F197" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G197" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>15</v>
       </c>
@@ -53632,8 +54227,11 @@
       <c r="F198" s="3">
         <v>69</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G198" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>10</v>
       </c>
@@ -53652,8 +54250,11 @@
       <c r="F199" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G199" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>13</v>
       </c>
@@ -53672,8 +54273,11 @@
       <c r="F200" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G200" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
         <v>9</v>
       </c>
@@ -53692,8 +54296,11 @@
       <c r="F201" s="3">
         <v>39</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G201" s="3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
         <v>7</v>
       </c>
@@ -53712,8 +54319,11 @@
       <c r="F202" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G202" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
         <v>11</v>
       </c>
@@ -53732,8 +54342,11 @@
       <c r="F203" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G203" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>5</v>
       </c>
@@ -53752,8 +54365,11 @@
       <c r="F204" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G204" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
         <v>1</v>
       </c>
@@ -53772,8 +54388,11 @@
       <c r="F205" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G205" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>15</v>
       </c>
@@ -53792,8 +54411,11 @@
       <c r="F206" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G206" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
         <v>11</v>
       </c>
@@ -53812,8 +54434,11 @@
       <c r="F207" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G207" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>7</v>
       </c>
@@ -53832,8 +54457,11 @@
       <c r="F208" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G208" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>9</v>
       </c>
@@ -53852,8 +54480,11 @@
       <c r="F209" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G209" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>1</v>
       </c>
@@ -53872,8 +54503,11 @@
       <c r="F210" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G210" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
         <v>15</v>
       </c>
@@ -53892,8 +54526,11 @@
       <c r="F211" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G211" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <v>10</v>
       </c>
@@ -53912,8 +54549,11 @@
       <c r="F212" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G212" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
         <v>5</v>
       </c>
@@ -53932,8 +54572,11 @@
       <c r="F213" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G213" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>11</v>
       </c>
@@ -53952,8 +54595,11 @@
       <c r="F214" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G214" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
         <v>9</v>
       </c>
@@ -53972,8 +54618,11 @@
       <c r="F215" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G215" s="3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>7</v>
       </c>
@@ -53992,8 +54641,11 @@
       <c r="F216" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G216" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>7</v>
       </c>
@@ -54012,8 +54664,11 @@
       <c r="F217" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G217" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>11</v>
       </c>
@@ -54032,8 +54687,11 @@
       <c r="F218" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G218" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <v>12</v>
       </c>
@@ -54052,8 +54710,11 @@
       <c r="F219" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G219" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <v>1</v>
       </c>
@@ -54072,8 +54733,11 @@
       <c r="F220" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G220" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
         <v>11</v>
       </c>
@@ -54092,8 +54756,11 @@
       <c r="F221" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G221" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
         <v>5</v>
       </c>
@@ -54112,8 +54779,11 @@
       <c r="F222" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G222" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
         <v>10</v>
       </c>
@@ -54132,8 +54802,11 @@
       <c r="F223" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G223" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>13</v>
       </c>
@@ -54152,8 +54825,11 @@
       <c r="F224" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G224" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="3">
         <v>7</v>
       </c>
@@ -54172,8 +54848,11 @@
       <c r="F225" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G225" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>15</v>
       </c>
@@ -54192,8 +54871,11 @@
       <c r="F226" s="3">
         <v>33</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G226" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
         <v>15</v>
       </c>
@@ -54212,8 +54894,11 @@
       <c r="F227" s="3">
         <v>141</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G227" s="3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
         <v>11</v>
       </c>
@@ -54232,8 +54917,11 @@
       <c r="F228" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G228" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
         <v>5</v>
       </c>
@@ -54252,8 +54940,11 @@
       <c r="F229" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G229" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
         <v>11</v>
       </c>
@@ -54272,8 +54963,11 @@
       <c r="F230" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G230" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="3">
         <v>15</v>
       </c>
@@ -54292,8 +54986,11 @@
       <c r="F231" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G231" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>11</v>
       </c>
@@ -54312,8 +55009,11 @@
       <c r="F232" s="3">
         <v>53</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G232" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
         <v>11</v>
       </c>
@@ -54332,8 +55032,11 @@
       <c r="F233" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G233" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
         <v>9</v>
       </c>
@@ -54352,8 +55055,11 @@
       <c r="F234" s="3">
         <v>621</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G234" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
         <v>11</v>
       </c>
@@ -54372,8 +55078,11 @@
       <c r="F235" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G235" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
         <v>5</v>
       </c>
@@ -54392,8 +55101,11 @@
       <c r="F236" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G236" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="3">
         <v>1</v>
       </c>
@@ -54412,8 +55124,11 @@
       <c r="F237" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G237" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
         <v>5</v>
       </c>
@@ -54432,8 +55147,11 @@
       <c r="F238" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G238" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
         <v>13</v>
       </c>
@@ -54452,8 +55170,11 @@
       <c r="F239" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G239" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
         <v>12</v>
       </c>
@@ -54472,8 +55193,11 @@
       <c r="F240" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G240" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
         <v>1</v>
       </c>
@@ -54492,8 +55216,11 @@
       <c r="F241" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G241" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
         <v>13</v>
       </c>
@@ -54512,8 +55239,11 @@
       <c r="F242" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G242" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="3">
         <v>12</v>
       </c>
@@ -54532,8 +55262,11 @@
       <c r="F243" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G243" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
         <v>11</v>
       </c>
@@ -54552,8 +55285,11 @@
       <c r="F244" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G244" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="3">
         <v>7</v>
       </c>
@@ -54572,8 +55308,11 @@
       <c r="F245" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G245" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
         <v>5</v>
       </c>
@@ -54592,8 +55331,11 @@
       <c r="F246" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G246" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="3">
         <v>7</v>
       </c>
@@ -54612,8 +55354,11 @@
       <c r="F247" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G247" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
         <v>11</v>
       </c>
@@ -54632,8 +55377,11 @@
       <c r="F248" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G248" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="3">
         <v>5</v>
       </c>
@@ -54652,8 +55400,11 @@
       <c r="F249" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G249" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
         <v>12</v>
       </c>
@@ -54672,8 +55423,11 @@
       <c r="F250" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G250" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="3">
         <v>12</v>
       </c>
@@ -54692,8 +55446,11 @@
       <c r="F251" s="3">
         <v>41</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G251" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
         <v>15</v>
       </c>
@@ -54712,8 +55469,11 @@
       <c r="F252" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G252" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="3">
         <v>7</v>
       </c>
@@ -54732,8 +55492,11 @@
       <c r="F253" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G253" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="3">
         <v>12</v>
       </c>
@@ -54752,8 +55515,11 @@
       <c r="F254" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G254" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="3">
         <v>13</v>
       </c>
@@ -54772,8 +55538,11 @@
       <c r="F255" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G255" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="3">
         <v>12</v>
       </c>
@@ -54792,8 +55561,11 @@
       <c r="F256" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G256" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="3">
         <v>13</v>
       </c>
@@ -54812,8 +55584,11 @@
       <c r="F257" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G257" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="3">
         <v>15</v>
       </c>
@@ -54832,8 +55607,11 @@
       <c r="F258" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G258" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="3">
         <v>12</v>
       </c>
@@ -54852,8 +55630,11 @@
       <c r="F259" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G259" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="3">
         <v>5</v>
       </c>
@@ -54872,8 +55653,11 @@
       <c r="F260" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G260" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="3">
         <v>12</v>
       </c>
@@ -54892,8 +55676,11 @@
       <c r="F261" s="3">
         <v>383</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G261" s="3">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="3">
         <v>5</v>
       </c>
@@ -54912,8 +55699,11 @@
       <c r="F262" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G262" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="3">
         <v>10</v>
       </c>
@@ -54932,8 +55722,11 @@
       <c r="F263" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G263" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="3">
         <v>11</v>
       </c>
@@ -54952,8 +55745,11 @@
       <c r="F264" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G264" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="3">
         <v>5</v>
       </c>
@@ -54972,8 +55768,11 @@
       <c r="F265" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G265" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="3">
         <v>5</v>
       </c>
@@ -54992,8 +55791,11 @@
       <c r="F266" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G266" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="3">
         <v>13</v>
       </c>
@@ -55012,8 +55814,11 @@
       <c r="F267" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G267" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="3">
         <v>7</v>
       </c>
@@ -55032,8 +55837,11 @@
       <c r="F268" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G268" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="3">
         <v>12</v>
       </c>
@@ -55052,8 +55860,11 @@
       <c r="F269" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G269" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="3">
         <v>1</v>
       </c>
@@ -55072,8 +55883,11 @@
       <c r="F270" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G270" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="3">
         <v>11</v>
       </c>
@@ -55092,8 +55906,11 @@
       <c r="F271" s="3">
         <v>167</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G271" s="3">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="3">
         <v>5</v>
       </c>
@@ -55112,8 +55929,11 @@
       <c r="F272" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G272" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="3">
         <v>5</v>
       </c>
@@ -55132,8 +55952,11 @@
       <c r="F273" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G273" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="3">
         <v>10</v>
       </c>
@@ -55152,8 +55975,11 @@
       <c r="F274" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G274" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="3">
         <v>13</v>
       </c>
@@ -55172,8 +55998,11 @@
       <c r="F275" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G275" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
         <v>1</v>
       </c>
@@ -55192,8 +56021,11 @@
       <c r="F276" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G276" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="3">
         <v>5</v>
       </c>
@@ -55212,8 +56044,11 @@
       <c r="F277" s="3">
         <v>466</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G277" s="3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="3">
         <v>5</v>
       </c>
@@ -55232,8 +56067,11 @@
       <c r="F278" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G278" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="3">
         <v>11</v>
       </c>
@@ -55252,8 +56090,11 @@
       <c r="F279" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G279" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="3">
         <v>7</v>
       </c>
@@ -55272,8 +56113,11 @@
       <c r="F280" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G280" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="3">
         <v>10</v>
       </c>
@@ -55292,8 +56136,11 @@
       <c r="F281" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G281" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="3">
         <v>13</v>
       </c>
@@ -55312,8 +56159,11 @@
       <c r="F282" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G282" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="3">
         <v>13</v>
       </c>
@@ -55332,8 +56182,11 @@
       <c r="F283" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G283" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="3">
         <v>15</v>
       </c>
@@ -55352,8 +56205,11 @@
       <c r="F284" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G284" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="3">
         <v>7</v>
       </c>
@@ -55372,8 +56228,11 @@
       <c r="F285" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G285" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="3">
         <v>1</v>
       </c>
@@ -55392,8 +56251,11 @@
       <c r="F286" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G286" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="3">
         <v>11</v>
       </c>
@@ -55412,8 +56274,11 @@
       <c r="F287" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G287" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="3">
         <v>5</v>
       </c>
@@ -55432,8 +56297,11 @@
       <c r="F288" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G288" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="3">
         <v>13</v>
       </c>
@@ -55452,8 +56320,11 @@
       <c r="F289" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G289" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="3">
         <v>7</v>
       </c>
@@ -55472,8 +56343,11 @@
       <c r="F290" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G290" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="3">
         <v>11</v>
       </c>
@@ -55492,8 +56366,11 @@
       <c r="F291" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G291" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="3">
         <v>11</v>
       </c>
@@ -55512,8 +56389,11 @@
       <c r="F292" s="3">
         <v>322</v>
       </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G292" s="3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="3">
         <v>15</v>
       </c>
@@ -55532,8 +56412,11 @@
       <c r="F293" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G293" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="3">
         <v>11</v>
       </c>
@@ -55552,8 +56435,11 @@
       <c r="F294" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G294" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="3">
         <v>13</v>
       </c>
@@ -55572,8 +56458,11 @@
       <c r="F295" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G295" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="3">
         <v>10</v>
       </c>
@@ -55592,8 +56481,11 @@
       <c r="F296" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G296" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="3">
         <v>15</v>
       </c>
@@ -55612,8 +56504,11 @@
       <c r="F297" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G297" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="3">
         <v>5</v>
       </c>
@@ -55632,8 +56527,11 @@
       <c r="F298" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G298" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="3">
         <v>15</v>
       </c>
@@ -55652,8 +56550,11 @@
       <c r="F299" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G299" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="3">
         <v>7</v>
       </c>
@@ -55672,8 +56573,11 @@
       <c r="F300" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G300" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="3">
         <v>10</v>
       </c>
@@ -55692,8 +56596,11 @@
       <c r="F301" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G301" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="3">
         <v>7</v>
       </c>
@@ -55712,8 +56619,11 @@
       <c r="F302" s="3">
         <v>374</v>
       </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G302" s="3">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="3">
         <v>11</v>
       </c>
@@ -55732,8 +56642,11 @@
       <c r="F303" s="3">
         <v>979</v>
       </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G303" s="3">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="3">
         <v>7</v>
       </c>
@@ -55752,8 +56665,11 @@
       <c r="F304" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G304" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" s="3">
         <v>15</v>
       </c>
@@ -55772,8 +56688,11 @@
       <c r="F305" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G305" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="3">
         <v>5</v>
       </c>
@@ -55792,8 +56711,11 @@
       <c r="F306" s="3">
         <v>90</v>
       </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G306" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="3">
         <v>5</v>
       </c>
@@ -55812,8 +56734,11 @@
       <c r="F307" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G307" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="3">
         <v>10</v>
       </c>
@@ -55832,8 +56757,11 @@
       <c r="F308" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G308" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" s="3">
         <v>15</v>
       </c>
@@ -55852,8 +56780,11 @@
       <c r="F309" s="3">
         <v>33</v>
       </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G309" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" s="3">
         <v>1</v>
       </c>
@@ -55872,8 +56803,11 @@
       <c r="F310" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G310" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" s="3">
         <v>1</v>
       </c>
@@ -55892,8 +56826,11 @@
       <c r="F311" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G311" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="3">
         <v>11</v>
       </c>
@@ -55912,8 +56849,11 @@
       <c r="F312" s="3">
         <v>608</v>
       </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G312" s="3">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" s="3">
         <v>1</v>
       </c>
@@ -55932,8 +56872,11 @@
       <c r="F313" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G313" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="3">
         <v>13</v>
       </c>
@@ -55952,8 +56895,11 @@
       <c r="F314" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G314" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" s="3">
         <v>9</v>
       </c>
@@ -55972,8 +56918,11 @@
       <c r="F315" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G315" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" s="3">
         <v>12</v>
       </c>
@@ -55992,8 +56941,11 @@
       <c r="F316" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G316" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="3">
         <v>7</v>
       </c>
@@ -56012,8 +56964,11 @@
       <c r="F317" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G317" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" s="3">
         <v>12</v>
       </c>
@@ -56032,8 +56987,11 @@
       <c r="F318" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G318" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" s="3">
         <v>12</v>
       </c>
@@ -56052,8 +57010,11 @@
       <c r="F319" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G319" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" s="3">
         <v>12</v>
       </c>
@@ -56072,8 +57033,11 @@
       <c r="F320" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G320" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" s="3">
         <v>12</v>
       </c>
@@ -56092,8 +57056,11 @@
       <c r="F321" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G321" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" s="3">
         <v>10</v>
       </c>
@@ -56112,8 +57079,11 @@
       <c r="F322" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G322" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" s="3">
         <v>9</v>
       </c>
@@ -56132,8 +57102,11 @@
       <c r="F323" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G323" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" s="3">
         <v>15</v>
       </c>
@@ -56152,8 +57125,11 @@
       <c r="F324" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G324" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" s="3">
         <v>11</v>
       </c>
@@ -56172,8 +57148,11 @@
       <c r="F325" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G325" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" s="3">
         <v>13</v>
       </c>
@@ -56192,8 +57171,11 @@
       <c r="F326" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G326" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="3">
         <v>12</v>
       </c>
@@ -56212,8 +57194,11 @@
       <c r="F327" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G327" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="3">
         <v>11</v>
       </c>
@@ -56231,6 +57216,9 @@
       </c>
       <c r="F328" s="3">
         <v>1</v>
+      </c>
+      <c r="G328" s="3">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/assignments/assign2/LA558_Assign2.xlsx
+++ b/assignments/assign2/LA558_Assign2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shs90\OneDrive\바탕 화면\LA 558\LA558_Son\assignments\assign2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181B5B00-0BDC-4EFE-82A9-0C99D7033E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA66C77-3F96-4136-B53B-12D72887B268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49668,7 +49668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A50745-5037-8941-A5B0-9A91469D8438}">
   <dimension ref="A1:G328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C310" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G328" sqref="G328"/>
     </sheetView>
   </sheetViews>
